--- a/code/python/sandbox/testData.xlsx
+++ b/code/python/sandbox/testData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>hlxID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,9 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S18-NBA-HL02</t>
-  </si>
-  <si>
     <t>光伏板破损</t>
   </si>
   <si>
@@ -48,10 +45,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S35-NBA-HL06</t>
-  </si>
-  <si>
-    <t>电线杆遮挡</t>
+    <t>S19-NBB-HL15</t>
   </si>
 </sst>
 </file>
@@ -463,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -487,44 +481,47 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/code/python/sandbox/testData.xlsx
+++ b/code/python/sandbox/testData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>hlxID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>S19-NBB-HL15</t>
+  </si>
+  <si>
+    <t>S19-NBB-HL15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -457,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -497,9 +501,9 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
     </row>
@@ -507,16 +511,112 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
-        <v>3</v>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
